--- a/tournament_statistics.xlsx
+++ b/tournament_statistics.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Wall of Text" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -63,10 +63,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,11 +464,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -511,845 +514,3142 @@
           <t>Generation</t>
         </is>
       </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Effect</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Slash</t>
+          <t>Pound</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>40</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Inflicts regular damage with no additional effect.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Force Palm</t>
+          <t>Fire Punch</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>75</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Has a 10% chance to burn the target.</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mist Ball</t>
+          <t>Cut</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Inflicts regular damage with no additional effect.</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Poison Powder</t>
+          <t>Swords Dance</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Raises the user's Attack by two stages.</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Flame Charge</t>
+          <t>Scratch</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>40</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Inflicts regular damage with no additional effect.</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pay Day</t>
+          <t>Fusion Bolt</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>With Fusion Flare, inflicts double damage.</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Strength</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Flying</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>90</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>User flies high into the air, dodging all attacks, and hits next turn.</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Endeavor</t>
+          <t>Slash</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>70</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Has an increased chance for a critical hit.</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Heal Bell</t>
+          <t>Force Palm</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fighting</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>60</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Has a 30% chance to paralyze the target.</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hyper Fang</t>
+          <t>Mist Ball</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Psychic</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Special</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>70</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Has a 50% chance to lower the target's Special Attack by one stage.</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Air Cutter</t>
+          <t>Poison Powder</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Poison</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Poisons the target.</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Acrobatics</t>
+          <t>Flame Charge</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>50</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Inflicts regular damage. Raises the user's Speed by one stage.</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dizzy Punch</t>
+          <t>Pay Day</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>40</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Scatters money on the ground worth five times the user's level.</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Scratch</t>
+          <t>Strength</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>80</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Inflicts regular damage with no additional effect.</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Flame Burst</t>
+          <t>Endeavor</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Lowers the target's HP to equal the user's.</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Shadow Ball</t>
+          <t>Heal Bell</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Cures the entire party of major status effects.</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sharpen</t>
+          <t>Hyper Fang</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>80</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Has a 10% chance to make the target flinch.</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Grass Pledge</t>
+          <t>Air Cutter</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Flying</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Special</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>55</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Has an increased chance for a critical hit.</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sky Uppercut</t>
+          <t>Acrobatics</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Flying</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>55</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Has double power if the user has no held item.</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Low Sweep</t>
+          <t>Dizzy Punch</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>70</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Has a 20% chance to confuse the target.</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Super Fang</t>
+          <t>Flame Burst</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Special</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>70</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Deals splash damage to Pokémon next to the target.</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Iron Defense</t>
+          <t>Shadow Ball</t>
         </is>
       </c>
       <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ghost</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Special</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>80</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
         <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Has a 20% chance to lower the target's Special Defense by one stage.</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Wood Hammer</t>
+          <t>Sharpen</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Raises the user's Attack by one stage.</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Harden</t>
+          <t>Grass Pledge</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Special</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>50</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>With Fire Pledge, damages opposing Pokémon for 1/8 their max HP every turn for four turns.</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Metal Sound</t>
+          <t>Sky Uppercut</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Fighting</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>85</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Inflicts regular damage and can hit Bounce and Fly users.</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Role Play</t>
+          <t>Low Sweep</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Fighting</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>60</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Lowers the target's Speed by one stage.</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Mind Reader</t>
+          <t>Super Fang</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Inflicts damage equal to half the target's HP.</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Poison Jab</t>
+          <t>Iron Defense</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Raises the user's Defense by two stages.</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Spacial Rend</t>
+          <t>Wood Hammer</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>120</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>User receives 1/3 the damage inflicted in recoil.</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Double-Edge</t>
+          <t>Harden</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Raises the user's Defense by one stage.</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aqua Tail</t>
+          <t>Metal Sound</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Lowers the target's Special Defense by two stages.</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Bug Bite</t>
+          <t>Role Play</t>
         </is>
       </c>
       <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Psychic</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
         <v>3</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Copies the target's ability.</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Leer</t>
+          <t>Mind Reader</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Ensures that the user's next move will hit the target.</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Bind</t>
+          <t>Poison Jab</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Poison</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>80</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Has a 30% chance to poison the target.</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Gear Grind</t>
+          <t>Spacial Rend</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Dragon</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Special</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>100</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Has an increased chance for a critical hit.</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Horn Drill</t>
+          <t>Double-Edge</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>1</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>120</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>User receives 1/3 the damage inflicted in recoil.</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Haze</t>
+          <t>Aqua Tail</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>90</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Inflicts regular damage with no additional effect.</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Leech Life</t>
+          <t>Bug Bite</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>60</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>If target has a berry, inflicts double damage and uses the berry.</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Toxic Spikes</t>
+          <t>Leer</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Lowers the target's Defense by one stage.</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Double Team</t>
+          <t>Bind</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>15</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Prevents the target from fleeing and inflicts damage for 2-5 turns.</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Work Up</t>
+          <t>Gear Grind</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>50</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Hits twice in one turn.</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Arm Thrust</t>
+          <t>Horn Drill</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>1</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Causes a one-hit KO.</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Echoed Voice</t>
+          <t>Haze</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>1</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Resets all Pokémon's stats, accuracy, and evasion.</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Tackle</t>
+          <t>Leech Life</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>20</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Drains half the damage inflicted to heal the user.</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Grass Whistle</t>
+          <t>Toxic Spikes</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Poison</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>4</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Scatters poisoned spikes, poisoning opposing Pokémon that switch in.</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Pound</t>
+          <t>Double Team</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Raises the user's evasion by one stage.</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Egg Bomb</t>
+          <t>Work Up</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>5</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Raises the user's Attack and Special Attack by one stage each.</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Entrainment</t>
+          <t>Arm Thrust</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Fighting</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>15</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Hits 2-5 times in one turn.</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Spikes</t>
+          <t>Echoed Voice</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Special</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>40</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Power increases by 100% for each consecutive use by any friendly Pokémon, to a maximum of 200.</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Aeroblast</t>
+          <t>Tackle</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>50</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Inflicts regular damage with no additional effect.</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Fury Cutter</t>
+          <t>Grass Whistle</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Puts the target to sleep.</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Hex</t>
+          <t>Egg Bomb</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>1</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>100</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Inflicts regular damage with no additional effect.</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Nasty Plot</t>
+          <t>Entrainment</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>1</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>5</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Copies the user's ability onto the target.</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Spit Up</t>
+          <t>Spikes</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>1</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ground</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Scatters Spikes, hurting opposing Pokémon that switch in.</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Frost Breath</t>
+          <t>Aeroblast</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>1</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Flying</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Special</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>100</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Has an increased chance for a critical hit.</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Overheat</t>
+          <t>Fury Cutter</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>1</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>20</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Power doubles every turn this move is used in succession after the first, maxing out after five turns.</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Tail Whip</t>
+          <t>Hex</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>1</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ghost</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Special</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>50</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>5</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Has double power if the target has a major status ailment.</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Magnet Rise</t>
+          <t>Nasty Plot</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>1</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Dark</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>4</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Raises the user's Special Attack by two stages.</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Taunt</t>
+          <t>Spit Up</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>1</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Special</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Power is 100 times the amount of energy Stockpiled.</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Screech</t>
+          <t>Frost Breath</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>1</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Special</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>40</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Always scores a critical hit.</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Gyro Ball</t>
+          <t>Overheat</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>1</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Special</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>140</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Lowers the user's Special Attack by two stages after inflicting damage.</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Absorb</t>
+          <t>Tail Whip</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>1</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Lowers the target's Defense by one stage.</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Leaf Blade</t>
+          <t>Magnet Rise</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>4</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>User is immune to Ground moves and effects for five turns.</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Head Smash</t>
+          <t>Taunt</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Dark</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>For the next few turns, the target can only use damaging moves.</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Vine Whip</t>
+          <t>Screech</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>1</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Lowers the target's Defense by two stages.</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Shell Smash</t>
+          <t>Gyro Ball</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>1</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>4</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Power raises when the user has lower Speed, up to a maximum of 150.</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Flare Blitz</t>
+          <t>Absorb</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Special</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>20</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Drains half the damage inflicted to heal the user.</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sky Drop</t>
+          <t>Leaf Blade</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>90</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>3</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Has an increased chance for a critical hit.</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Close Combat</t>
+          <t>Head Smash</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>1</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Rock</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>150</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>User receives 1/2 the damage inflicted in recoil.</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Smelling Salts</t>
+          <t>Vine Whip</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>35</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Inflicts regular damage with no additional effect.</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Facade</t>
+          <t>Shell Smash</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>5</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Raises user's Attack, Special Attack, and Speed by two stages. Lower user's Defense and Special Defense by one stage.</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Swagger</t>
+          <t>Flare Blitz</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>1</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>120</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>4</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>User takes 1/3 the damage inflicted in recoil. Has a 10% chance to burn the target.</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Hydro Cannon</t>
+          <t>Sky Drop</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>1</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Flying</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>60</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Carries the target high into the air, dodging all attacks against either, and drops it next turn.</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Recover</t>
+          <t>Close Combat</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>1</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Fighting</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>120</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="n">
+        <v>4</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Lowers the user's Defense and Special Defense by one stage after inflicting damage.</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Whirlwind</t>
+          <t>Smelling Salts</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>60</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" t="n">
+        <v>3</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>If the target is paralyzed, inflicts double damage and cures the paralysis.</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Rapid Spin</t>
+          <t>Facade</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>70</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" t="n">
+        <v>3</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Power doubles if user is burned, paralyzed, or poisoned.</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Belly Drum</t>
+          <t>Swagger</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Raises the target's Attack by two stages and confuses the target.</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Powder Snow</t>
+          <t>Hydro Cannon</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>1</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Special</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>150</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G79" t="n">
+        <v>3</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>User foregoes its next turn to recharge.</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Perish Song</t>
+          <t>Recover</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Heals the user by half its max HP.</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Shock Wave</t>
+          <t>Whirlwind</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>1</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Immediately ends wild battles. Forces trainers to switch Pokémon.</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Confuse Ray</t>
+          <t>Rapid Spin</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>1</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>20</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Frees the user from binding moves, removes Leech Seed, and blows away Spikes.</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Seed Bomb</t>
+          <t>Belly Drum</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>User pays half its max HP to max out its Attack.</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Bullet Seed</t>
+          <t>Powder Snow</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Special</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>40</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Has a 10% chance to freeze the target.</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>Perish Song</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>User and target both faint after three turns.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Shock Wave</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Special</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>60</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>3</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Never misses.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Confuse Ray</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Ghost</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Confuses the target.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Seed Bomb</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>80</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="n">
+        <v>4</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Inflicts regular damage with no additional effect.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Bullet Seed</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>25</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" t="n">
+        <v>3</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Hits 2-5 times in one turn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
           <t>Mega Kick</t>
         </is>
       </c>
-      <c r="B85" t="n">
-        <v>1</v>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>120</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Inflicts regular damage with no additional effect.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1598,7 +3898,7 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>

--- a/tournament_statistics.xlsx
+++ b/tournament_statistics.xlsx
@@ -467,8 +467,8 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:H8"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>

--- a/tournament_statistics.xlsx
+++ b/tournament_statistics.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="657" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="657" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metronome_Data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Metronome_Data (2)" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Pokemon_Data" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Team_Data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Wall of Text" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Pokemon_Data (2)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Team_Data" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Wall of Text" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -466,7 +467,7 @@
   </sheetPr>
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
@@ -3731,6 +3732,458 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="A2:H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="9.77734375" customWidth="1" min="2" max="2"/>
+    <col width="9.77734375" customWidth="1" min="6" max="6"/>
+    <col width="18.5546875" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="18.109375" bestFit="1" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Defeats</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Faints</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Self-Faints</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Damage Given (in %)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Damage Taken (in %)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Rhydon</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>['Ground', 'Rock']</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Rock</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>71.60000000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tyranitar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>['Rock', 'Dark']</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Rock</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>84.49999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aggron</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>['Steel', 'Rock']</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Rock</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>117.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Rampardos</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>['Rock', None]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Rock</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>157.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Gigalith</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>['Rock', None]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Rock</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Solrock</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>['Rock', 'Psychic']</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Rock</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>80.00000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Steelix</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>['Steel', 'Ground']</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Metagross</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>['Steel', 'Psychic']</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>122.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>86.40000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Bastiodon</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>['Rock', 'Steel']</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="H10" t="n">
+        <v>94.09999999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Bisharp</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>['Dark', 'Steel']</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>150.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Escavalier</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>['Bug', 'Steel']</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mawile</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>['Steel', None]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3889,7 +4342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
